--- a/expected results.xlsx
+++ b/expected results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="22180" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="25940" windowHeight="14140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -144,17 +144,40 @@
   </si>
   <si>
     <t>debt service</t>
+  </si>
+  <si>
+    <t>Tenant 1 size</t>
+  </si>
+  <si>
+    <t>rent / SF</t>
+  </si>
+  <si>
+    <t>anualized</t>
+  </si>
+  <si>
+    <t>Tenant 2 size</t>
+  </si>
+  <si>
+    <t>Distillery</t>
+  </si>
+  <si>
+    <t>Test Value change</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -285,12 +308,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -305,7 +329,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -313,13 +337,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -329,6 +356,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -596,45 +626,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="18"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="18"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -642,117 +674,133 @@
         <v>42809</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9">
+        <f>4100000+D4</f>
         <v>4100000</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="7">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>42826</v>
       </c>
-      <c r="J4" s="6">
-        <f>I4+364</f>
+      <c r="K4" s="6">
+        <f>J4+364</f>
         <v>43190</v>
       </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9">
+        <f>1200000+D5</f>
         <v>1200000</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="7">
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
-        <f>J4+1</f>
+      <c r="J5" s="6">
+        <f>K4+1</f>
         <v>43191</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5+364</f>
+      <c r="K5" s="6">
+        <f>J5+364</f>
         <v>43555</v>
       </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <f>B5*2%</f>
-        <v>24000</v>
+        <f>B4*2%</f>
+        <v>82000</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="7">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I8" si="0">J5+1</f>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J8" si="0">K5+1</f>
         <v>43556</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" ref="J6:J8" si="1">I6+364</f>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K8" si="1">J6+364</f>
         <v>43920</v>
       </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10">
+        <f>6.5%+D7</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>43921</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>44285</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -761,98 +809,105 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="7">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>44286</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>44650</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9">
-        <f>75%*B4</f>
+        <f>75%*B4+D11</f>
         <v>3075000</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="12">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="20" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="21">
-        <f>D20*12</f>
+      <c r="J12" s="21">
+        <f>D22*12</f>
         <v>543241.79999999993</v>
       </c>
-      <c r="J12" s="22">
-        <f>D28*2+D29*10</f>
+      <c r="K12" s="22">
+        <f>D32*2+D33*10</f>
         <v>539000</v>
       </c>
-      <c r="K12" s="23">
-        <f>SUM(I12:J12)</f>
+      <c r="L12" s="23">
+        <f>SUM(J12:K12)</f>
         <v>1082241.7999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -861,712 +916,900 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="21">
-        <f t="shared" ref="I13:I15" si="2">D21*12</f>
+      <c r="J13" s="21">
+        <f>D23*12</f>
         <v>556822.84499999986</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" ref="J13:J16" si="3">D29*2+D30*10</f>
+      <c r="K13" s="22">
+        <f>D33*2+D34*10</f>
         <v>552474.99999999988</v>
       </c>
-      <c r="K13" s="23">
-        <f t="shared" ref="K13:K16" si="4">SUM(I13:J13)</f>
+      <c r="L13" s="23">
+        <f t="shared" ref="L13:L16" si="2">SUM(J13:K13)</f>
         <v>1109297.8449999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="13">
         <f>PMT(B12,B13,B11)</f>
-        <v>-196836.7855683479</v>
+        <v>-338766.82198431413</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="7">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
+        <f>D24*12</f>
+        <v>570743.41612499976</v>
+      </c>
+      <c r="K14" s="22">
+        <f>D34*2+D35*10</f>
+        <v>566286.87499999977</v>
+      </c>
+      <c r="L14" s="23">
         <f t="shared" si="2"/>
-        <v>570743.41612499976</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="3"/>
-        <v>566286.87499999977</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="4"/>
         <v>1137030.2911249995</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="7">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="I15" s="21">
+      <c r="J15" s="21">
+        <f>D25*12</f>
+        <v>585012.00152812479</v>
+      </c>
+      <c r="K15" s="22">
+        <f>D35*2+D36*10</f>
+        <v>580444.04687499965</v>
+      </c>
+      <c r="L15" s="23">
         <f t="shared" si="2"/>
-        <v>585012.00152812479</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="3"/>
-        <v>580444.04687499965</v>
-      </c>
-      <c r="K15" s="23">
-        <f t="shared" si="4"/>
         <v>1165456.0484031243</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="7">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="7">
         <v>4</v>
       </c>
-      <c r="I16" s="21">
-        <f>D24*12</f>
+      <c r="J16" s="21">
+        <f>D26*12</f>
         <v>599637.30156632781</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="3"/>
+      <c r="K16" s="22">
+        <f>D36*2+D37*10</f>
         <v>594955.14804687467</v>
       </c>
-      <c r="K16" s="23">
-        <f t="shared" si="4"/>
+      <c r="L16" s="23">
+        <f t="shared" si="2"/>
         <v>1194592.4496132024</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="11">
+        <v>20000</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="G18" s="20" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
-        <v>42461</v>
-      </c>
-      <c r="C19" s="6">
-        <v>42825</v>
-      </c>
-      <c r="D19" s="14">
-        <v>44166</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="7">
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="24">
-        <f>SUM(C36:C41)</f>
+      <c r="J19" s="24">
+        <f>SUM(C40:C45)</f>
         <v>145000</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6">
-        <f>C19+1</f>
-        <v>42826</v>
-      </c>
-      <c r="C20" s="6">
-        <f>B20+364</f>
-        <v>43190</v>
-      </c>
-      <c r="D20" s="14">
-        <f>D19*1.025</f>
-        <v>45270.149999999994</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="24">
-        <f>I19*(1+$C$42)</f>
+      <c r="J20" s="24">
+        <f>J19*(1+$C$46)</f>
         <v>147900</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
-        <f t="shared" ref="B21:B25" si="5">C20+1</f>
-        <v>43191</v>
+        <v>42461</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:C25" si="6">B21+364</f>
-        <v>43555</v>
+        <v>42825</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" ref="D21:D23" si="7">D20*1.025</f>
-        <v>46401.90374999999</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="7">
+        <v>44166</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21*12</f>
+        <v>529992</v>
+      </c>
+      <c r="F21" s="23">
+        <f>D21*12/B$17</f>
+        <v>26.499600000000001</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="I21" s="24">
-        <f t="shared" ref="I21:I23" si="8">I20*(1+$C$42)</f>
+      <c r="J21" s="24">
+        <f>J20*(1+$C$46)</f>
         <v>150858</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
-        <f t="shared" si="5"/>
-        <v>43556</v>
+        <f>C21+1</f>
+        <v>42826</v>
       </c>
       <c r="C22" s="6">
-        <f>B22+365</f>
-        <v>43921</v>
+        <f>B22+364</f>
+        <v>43190</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="7"/>
-        <v>47561.951343749985</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="7">
+        <f>D21*1.025</f>
+        <v>45270.149999999994</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:E27" si="3">D22*12</f>
+        <v>543241.79999999993</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" ref="F22:F27" si="4">D22*12/B$17</f>
+        <v>27.162089999999996</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="7">
         <v>3</v>
       </c>
-      <c r="I22" s="24">
-        <f t="shared" si="8"/>
+      <c r="J22" s="24">
+        <f>J21*(1+$C$46)</f>
         <v>153875.16</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
-        <f t="shared" si="5"/>
-        <v>43922</v>
+        <f t="shared" ref="B23:B27" si="5">C22+1</f>
+        <v>43191</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="6"/>
-        <v>44286</v>
+        <f t="shared" ref="C23:C27" si="6">B23+364</f>
+        <v>43555</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" si="7"/>
-        <v>48751.00012734373</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="7">
+        <f t="shared" ref="D23:D25" si="7">D22*1.025</f>
+        <v>46401.90374999999</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="3"/>
+        <v>556822.84499999986</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="4"/>
+        <v>27.841142249999994</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="7">
         <v>4</v>
       </c>
-      <c r="I23" s="24">
-        <f t="shared" si="8"/>
+      <c r="J23" s="24">
+        <f>J22*(1+$C$46)</f>
         <v>156952.66320000001</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <f t="shared" si="5"/>
-        <v>44287</v>
+        <v>43556</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="6"/>
-        <v>44651</v>
+        <f>B24+365</f>
+        <v>43921</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" ref="D24:D25" si="9">D23*1.025</f>
-        <v>49969.77513052732</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="7"/>
+        <f t="shared" si="7"/>
+        <v>47561.951343749985</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="3"/>
+        <v>570743.41612499976</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="4"/>
+        <v>28.537170806249989</v>
+      </c>
+      <c r="H24" s="20"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="7"/>
+      <c r="L24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="5"/>
-        <v>44652</v>
+        <v>43922</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="6"/>
+        <v>44286</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="7"/>
+        <v>48751.00012734373</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="3"/>
+        <v>585012.00152812479</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="4"/>
+        <v>29.25060007640624</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f>L12-J19</f>
+        <v>937241.79999999981</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="23">
+        <f>J25/$B$7</f>
+        <v>14419104.615384612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6">
+        <f t="shared" si="5"/>
+        <v>44287</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="6"/>
+        <v>44651</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" ref="D26:D27" si="8">D25*1.025</f>
+        <v>49969.77513052732</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="3"/>
+        <v>599637.30156632781</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="4"/>
+        <v>29.981865078316389</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" ref="J26:J27" si="9">L13-J20</f>
+        <v>961397.84499999974</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="23">
+        <f t="shared" ref="L26:L29" si="10">J26/$B$7</f>
+        <v>14790736.076923072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6">
+        <f t="shared" si="5"/>
+        <v>44652</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="6"/>
         <v>45016</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D27" s="14">
+        <f t="shared" si="8"/>
+        <v>51219.019508790501</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="3"/>
+        <v>614628.23410548596</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="4"/>
+        <v>30.731411705274297</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="7">
+        <v>2</v>
+      </c>
+      <c r="J27" s="14">
         <f t="shared" si="9"/>
-        <v>51219.019508790501</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="G25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <f>K12-I19</f>
-        <v>937241.79999999981</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" ref="I26:I29" si="10">K13-I20</f>
-        <v>961397.84499999974</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>986172.29112499952</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="23">
+        <f t="shared" si="10"/>
+        <v>15171881.40192307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="J28" s="14">
+        <f>L15-J22</f>
+        <v>1011580.8884031243</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="23">
+        <f t="shared" si="10"/>
+        <v>15562782.898509605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="11">
+        <v>30000</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="23"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="7">
+        <v>4</v>
+      </c>
+      <c r="J29" s="14">
+        <f>L16-J23</f>
+        <v>1037639.7864132023</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="23">
+        <f t="shared" si="10"/>
+        <v>15963689.021741573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="10"/>
-        <v>986172.29112499952</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>42522</v>
-      </c>
-      <c r="C28" s="6">
-        <f>B28+364</f>
-        <v>42886</v>
-      </c>
-      <c r="D28" s="14">
-        <v>44000</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="10"/>
-        <v>1011580.8884031243</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6">
-        <f>C28+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C29" s="6">
-        <f>B29+364</f>
-        <v>43251</v>
-      </c>
-      <c r="D29" s="14">
-        <f>D28*1.025</f>
-        <v>45099.999999999993</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="10"/>
-        <v>1037639.7864132023</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <f t="shared" ref="B30:B34" si="11">C29+1</f>
-        <v>43252</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:C34" si="12">B30+364</f>
-        <v>43616</v>
-      </c>
-      <c r="D30" s="14">
-        <f t="shared" ref="D30:D34" si="13">D29*1.025</f>
-        <v>46227.499999999985</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6">
-        <f t="shared" si="11"/>
-        <v>43617</v>
-      </c>
-      <c r="C31" s="6">
-        <f>B31+365</f>
-        <v>43982</v>
-      </c>
-      <c r="D31" s="14">
-        <f t="shared" si="13"/>
-        <v>47383.187499999978</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="G31" s="20" t="s">
+      <c r="E31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B32" s="6">
-        <f t="shared" si="11"/>
-        <v>43983</v>
+        <v>42522</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="12"/>
-        <v>44347</v>
+        <f>B32+364</f>
+        <v>42886</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="13"/>
-        <v>48567.767187499972</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="7"/>
+        <v>44000</v>
+      </c>
+      <c r="E32" s="14">
+        <f>D32*12</f>
+        <v>528000</v>
+      </c>
+      <c r="F32" s="23">
+        <f>D32*12/B$29</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H32" s="20"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6">
-        <f t="shared" si="11"/>
-        <v>44348</v>
+        <f>C32+1</f>
+        <v>42887</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="12"/>
-        <v>44712</v>
+        <f>B33+364</f>
+        <v>43251</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" si="13"/>
-        <v>49781.961367187469</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="7" t="s">
+        <f>D32*1.025</f>
+        <v>45099.999999999993</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" ref="E33:E38" si="11">D33*12</f>
+        <v>541199.99999999988</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" ref="F33:F38" si="12">D33*12/B$29</f>
+        <v>18.039999999999996</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <f>B4+B5</f>
         <v>5300000</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
+        <f t="shared" ref="B34:B38" si="13">C33+1</f>
+        <v>43252</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:C38" si="14">B34+364</f>
+        <v>43616</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" ref="D34:D38" si="15">D33*1.025</f>
+        <v>46227.499999999985</v>
+      </c>
+      <c r="E34" s="14">
         <f t="shared" si="11"/>
-        <v>44713</v>
-      </c>
-      <c r="C34" s="6">
+        <v>554729.99999999977</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" si="12"/>
-        <v>45077</v>
-      </c>
-      <c r="D34" s="14">
+        <v>18.490999999999993</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="9">
+        <f>J33-B11</f>
+        <v>2225000</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6">
         <f t="shared" si="13"/>
-        <v>51026.510401367152</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="9">
-        <f>I33-B11</f>
-        <v>2225000</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="7" t="s">
+        <v>43617</v>
+      </c>
+      <c r="C35" s="6">
+        <f>B35+365</f>
+        <v>43982</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="15"/>
+        <v>47383.187499999978</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="11"/>
+        <v>568598.24999999977</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="12"/>
+        <v>18.953274999999991</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <f>B14</f>
-        <v>-196836.7855683479</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="11">
-        <v>100000</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="7"/>
+        <v>-338766.82198431413</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6">
+        <f t="shared" si="13"/>
+        <v>43983</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="14"/>
+        <v>44347</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="15"/>
+        <v>48567.767187499972</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="11"/>
+        <v>582813.2062499997</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="12"/>
+        <v>19.427106874999989</v>
+      </c>
+      <c r="H36" s="20"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>12500</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
+      <c r="B37" s="6">
+        <f t="shared" si="13"/>
+        <v>44348</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="14"/>
+        <v>44712</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="15"/>
+        <v>49781.961367187469</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="11"/>
+        <v>597383.53640624962</v>
+      </c>
+      <c r="F37" s="23">
+        <f t="shared" si="12"/>
+        <v>19.912784546874988</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>12500</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="7">
+      <c r="B38" s="6">
+        <f t="shared" si="13"/>
+        <v>44713</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="15"/>
+        <v>51026.510401367152</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="11"/>
+        <v>612318.12481640582</v>
+      </c>
+      <c r="F38" s="23">
+        <f t="shared" si="12"/>
+        <v>20.41060416054686</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" s="25">
-        <f>(I25+$I$35)/$I$34</f>
-        <v>0.33276629862096713</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J38" s="25">
+        <f>(J25+$J$35)/$J$34</f>
+        <v>0.26897751820929694</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7">
-        <v>5000</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="7">
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="7">
         <v>1</v>
       </c>
-      <c r="I39" s="25">
-        <f t="shared" ref="I39:I42" si="14">(I26+$I$35)/$I$34</f>
-        <v>0.34362294805916938</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="J39" s="25">
+        <f>(J26+$J$35)/$J$34</f>
+        <v>0.27983416764749913</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="7">
-        <v>7500</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="11">
+        <v>100000</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="7">
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="7">
         <v>2</v>
       </c>
-      <c r="I40" s="25">
-        <f t="shared" si="14"/>
-        <v>0.35475753058725917</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="25">
+        <f>(J27+$J$35)/$J$34</f>
+        <v>0.29096875017558893</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="7">
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="7">
         <v>3</v>
       </c>
-      <c r="I41" s="25">
-        <f t="shared" si="14"/>
-        <v>0.36617712486956244</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="25">
+        <f>(J28+$J$35)/$J$34</f>
+        <v>0.3023883444578922</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0.02</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="7">
+        <v>12500</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="7">
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="7">
         <v>4</v>
       </c>
-      <c r="I42" s="25">
-        <f t="shared" si="14"/>
-        <v>0.37788898914375479</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="25">
+        <f>(J29+$J$35)/$J$34</f>
+        <v>0.31410020873208455</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="7">
+        <v>5000</v>
+      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="7">
+        <v>7500</v>
+      </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="16"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7">
+        <v>7500</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="12">
+        <f>2%+E46</f>
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/expected results.xlsx
+++ b/expected results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="25940" windowHeight="14140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10760" yWindow="1060" windowWidth="25600" windowHeight="14140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>start Date</t>
+  </si>
+  <si>
+    <t>Annualized Rent</t>
+  </si>
+  <si>
+    <t>Tenant 1</t>
+  </si>
+  <si>
+    <t>Tenant 3</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Jasmine Test Results</t>
   </si>
 </sst>
 </file>
@@ -177,7 +195,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -314,7 +332,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -343,7 +361,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -627,25 +651,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="18"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -653,7 +684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -666,7 +697,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -690,8 +721,33 @@
         <v>27</v>
       </c>
       <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -717,8 +773,40 @@
         <v>43190</v>
       </c>
       <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29">
+        <v>42767</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>43131</v>
+      </c>
+      <c r="S4" s="31">
+        <f>11*R13+R14</f>
+        <v>601200</v>
+      </c>
+      <c r="T4" s="31">
+        <f>10*R22</f>
+        <v>400000</v>
+      </c>
+      <c r="U4" s="31">
+        <f>R31*5</f>
+        <v>150000</v>
+      </c>
+      <c r="V4" s="31">
+        <f>SUM(S4:U4)</f>
+        <v>1151200</v>
+      </c>
+      <c r="W4" s="31">
+        <v>1151200</v>
+      </c>
+      <c r="X4" s="32">
+        <f>V4-W4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -745,8 +833,43 @@
         <v>43555</v>
       </c>
       <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="29">
+        <f>Q4+1</f>
+        <v>43132</v>
+      </c>
+      <c r="Q5" s="29">
+        <f>P5+364</f>
+        <v>43496</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" ref="S5:S9" si="0">11*R14+1*R15</f>
+        <v>615600</v>
+      </c>
+      <c r="T5" s="31">
+        <f>2*R22+10*R23</f>
+        <v>490000</v>
+      </c>
+      <c r="U5" s="31">
+        <f>R31*7+R32*5</f>
+        <v>363000</v>
+      </c>
+      <c r="V5" s="31">
+        <f t="shared" ref="V5:V9" si="1">SUM(S5:U5)</f>
+        <v>1468600</v>
+      </c>
+      <c r="W5" s="31">
+        <v>1468600</v>
+      </c>
+      <c r="X5" s="32">
+        <f t="shared" ref="X5:X9" si="2">V5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="34"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,16 +886,50 @@
         <v>2</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6:J8" si="0">K5+1</f>
+        <f t="shared" ref="J6:J8" si="3">K5+1</f>
         <v>43556</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K8" si="1">J6+364</f>
+        <f t="shared" ref="K6:K8" si="4">J6+364</f>
         <v>43920</v>
       </c>
       <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" ref="P6:P9" si="5">Q5+1</f>
+        <v>43497</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" ref="Q6:Q9" si="6">P6+364</f>
+        <v>43861</v>
+      </c>
+      <c r="S6" s="31">
+        <f t="shared" si="0"/>
+        <v>630000</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" ref="T6:T9" si="7">2*R23+10*R24</f>
+        <v>502000</v>
+      </c>
+      <c r="U6" s="31">
+        <f t="shared" ref="U6:U9" si="8">R32*7+R33*5</f>
+        <v>370200</v>
+      </c>
+      <c r="V6" s="31">
+        <f t="shared" si="1"/>
+        <v>1502200</v>
+      </c>
+      <c r="W6" s="31">
+        <v>1502200</v>
+      </c>
+      <c r="X6" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -791,16 +948,50 @@
         <v>3</v>
       </c>
       <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>43921</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="4"/>
+        <v>44285</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="5"/>
+        <v>43862</v>
+      </c>
+      <c r="Q7" s="29">
+        <f>P7+365</f>
+        <v>44227</v>
+      </c>
+      <c r="S7" s="31">
         <f t="shared" si="0"/>
-        <v>43921</v>
-      </c>
-      <c r="K7" s="6">
+        <v>644400</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="7"/>
+        <v>514000</v>
+      </c>
+      <c r="U7" s="31">
+        <f t="shared" si="8"/>
+        <v>377400</v>
+      </c>
+      <c r="V7" s="31">
         <f t="shared" si="1"/>
-        <v>44285</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1535800</v>
+      </c>
+      <c r="W7" s="31">
+        <v>1535800</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -816,16 +1007,50 @@
         <v>4</v>
       </c>
       <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>44286</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="4"/>
+        <v>44650</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" s="29">
+        <f t="shared" si="5"/>
+        <v>44228</v>
+      </c>
+      <c r="Q8" s="29">
+        <f t="shared" si="6"/>
+        <v>44592</v>
+      </c>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>44286</v>
-      </c>
-      <c r="K8" s="6">
+        <v>658800</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="7"/>
+        <v>526000</v>
+      </c>
+      <c r="U8" s="31">
+        <f t="shared" si="8"/>
+        <v>384600</v>
+      </c>
+      <c r="V8" s="31">
         <f t="shared" si="1"/>
-        <v>44650</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1569400</v>
+      </c>
+      <c r="W8" s="31">
+        <v>1569400</v>
+      </c>
+      <c r="X8" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -837,8 +1062,42 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="29">
+        <f t="shared" si="5"/>
+        <v>44593</v>
+      </c>
+      <c r="Q9" s="29">
+        <f t="shared" si="6"/>
+        <v>44957</v>
+      </c>
+      <c r="S9" s="31">
+        <f t="shared" si="0"/>
+        <v>673200</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="7"/>
+        <v>538000</v>
+      </c>
+      <c r="U9" s="31">
+        <f t="shared" si="8"/>
+        <v>391800</v>
+      </c>
+      <c r="V9" s="31">
+        <f t="shared" si="1"/>
+        <v>1603000</v>
+      </c>
+      <c r="W9" s="31">
+        <v>1603000</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -850,8 +1109,10 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -877,7 +1138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -906,8 +1167,24 @@
         <f>SUM(J12:K12)</f>
         <v>1082241.7999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -931,11 +1208,29 @@
         <v>552474.99999999988</v>
       </c>
       <c r="L13" s="23">
-        <f t="shared" ref="L13:L16" si="2">SUM(J13:K13)</f>
+        <f t="shared" ref="L13:L16" si="9">SUM(J13:K13)</f>
         <v>1109297.8449999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>42736</v>
+      </c>
+      <c r="Q13" s="33">
+        <f>P13+364</f>
+        <v>43100</v>
+      </c>
+      <c r="R13" s="31">
+        <v>50000</v>
+      </c>
+      <c r="S13" s="30">
+        <f>R13*12</f>
+        <v>600000</v>
+      </c>
+      <c r="V13" s="32"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -960,11 +1255,30 @@
         <v>566286.87499999977</v>
       </c>
       <c r="L14" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1137030.2911249995</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="33">
+        <f>Q13+1</f>
+        <v>43101</v>
+      </c>
+      <c r="Q14" s="33">
+        <f t="shared" ref="Q14:Q19" si="10">P14+364</f>
+        <v>43465</v>
+      </c>
+      <c r="R14" s="31">
+        <f>R13+1200</f>
+        <v>51200</v>
+      </c>
+      <c r="S14" s="30">
+        <f t="shared" ref="S14:S19" si="11">R14*12</f>
+        <v>614400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -984,11 +1298,30 @@
         <v>580444.04687499965</v>
       </c>
       <c r="L15" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1165456.0484031243</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" s="33">
+        <f t="shared" ref="P15:P19" si="12">Q14+1</f>
+        <v>43466</v>
+      </c>
+      <c r="Q15" s="33">
+        <f t="shared" si="10"/>
+        <v>43830</v>
+      </c>
+      <c r="R15" s="31">
+        <f t="shared" ref="R15:R19" si="13">R14+1200</f>
+        <v>52400</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" si="11"/>
+        <v>628800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1008,11 +1341,30 @@
         <v>594955.14804687467</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1194592.4496132024</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="33">
+        <f t="shared" si="12"/>
+        <v>43831</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>P16+365</f>
+        <v>44196</v>
+      </c>
+      <c r="R16" s="31">
+        <f t="shared" si="13"/>
+        <v>53600</v>
+      </c>
+      <c r="S16" s="30">
+        <f t="shared" si="11"/>
+        <v>643200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1028,8 +1380,27 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="33">
+        <f t="shared" si="12"/>
+        <v>44197</v>
+      </c>
+      <c r="Q17" s="33">
+        <f t="shared" si="10"/>
+        <v>44561</v>
+      </c>
+      <c r="R17" s="31">
+        <f t="shared" si="13"/>
+        <v>54800</v>
+      </c>
+      <c r="S17" s="30">
+        <f t="shared" si="11"/>
+        <v>657600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1043,8 +1414,27 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18" s="33">
+        <f t="shared" si="12"/>
+        <v>44562</v>
+      </c>
+      <c r="Q18" s="33">
+        <f t="shared" si="10"/>
+        <v>44926</v>
+      </c>
+      <c r="R18" s="31">
+        <f t="shared" si="13"/>
+        <v>56000</v>
+      </c>
+      <c r="S18" s="30">
+        <f t="shared" si="11"/>
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1453,27 @@
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" si="12"/>
+        <v>44927</v>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="10"/>
+        <v>45291</v>
+      </c>
+      <c r="R19" s="31">
+        <f t="shared" si="13"/>
+        <v>57200</v>
+      </c>
+      <c r="S19" s="30">
+        <f t="shared" si="11"/>
+        <v>686400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>11</v>
@@ -1091,8 +1500,11 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>42461</v>
@@ -1121,8 +1533,23 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <f>C21+1</f>
@@ -1137,11 +1564,11 @@
         <v>45270.149999999994</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" ref="E22:E27" si="3">D22*12</f>
+        <f t="shared" ref="E22:E27" si="14">D22*12</f>
         <v>543241.79999999993</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" ref="F22:F27" si="4">D22*12/B$17</f>
+        <f t="shared" ref="F22:F27" si="15">D22*12/B$17</f>
         <v>27.162089999999996</v>
       </c>
       <c r="H22" s="20"/>
@@ -1154,27 +1581,52 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
+        <v>42826</v>
+      </c>
+      <c r="Q22" s="33">
+        <f>P22+364</f>
+        <v>43190</v>
+      </c>
+      <c r="R22" s="31">
+        <v>40000</v>
+      </c>
+      <c r="S22" s="30">
+        <f>R22*12</f>
+        <v>480000</v>
+      </c>
+      <c r="U22">
+        <f>Q4-P22</f>
+        <v>305</v>
+      </c>
+      <c r="V22">
+        <f>U22/30</f>
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:B27" si="5">C22+1</f>
+        <f t="shared" ref="B23:B27" si="16">C22+1</f>
         <v>43191</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:C27" si="6">B23+364</f>
+        <f t="shared" ref="C23:C27" si="17">B23+364</f>
         <v>43555</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" ref="D23:D25" si="7">D22*1.025</f>
+        <f t="shared" ref="D23:D25" si="18">D22*1.025</f>
         <v>46401.90374999999</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>556822.84499999986</v>
       </c>
       <c r="F23" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>27.841142249999994</v>
       </c>
       <c r="H23" s="20"/>
@@ -1187,11 +1639,31 @@
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="33">
+        <f>Q22+1</f>
+        <v>43191</v>
+      </c>
+      <c r="Q23" s="33">
+        <f t="shared" ref="Q23:Q28" si="19">P23+364</f>
+        <v>43555</v>
+      </c>
+      <c r="R23" s="31">
+        <f>R22+1000</f>
+        <v>41000</v>
+      </c>
+      <c r="S23" s="30">
+        <f t="shared" ref="S23:S28" si="20">R23*12</f>
+        <v>492000</v>
+      </c>
+      <c r="U23" s="32"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>43556</v>
       </c>
       <c r="C24" s="6">
@@ -1199,15 +1671,15 @@
         <v>43921</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>47561.951343749985</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>570743.41612499976</v>
       </c>
       <c r="F24" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>28.537170806249989</v>
       </c>
       <c r="H24" s="20"/>
@@ -1217,27 +1689,46 @@
       <c r="L24" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" ref="P24:P28" si="21">Q23+1</f>
+        <v>43556</v>
+      </c>
+      <c r="Q24" s="33">
+        <f>P24+365</f>
+        <v>43921</v>
+      </c>
+      <c r="R24" s="31">
+        <f t="shared" ref="R24:R28" si="22">R23+1000</f>
+        <v>42000</v>
+      </c>
+      <c r="S24" s="30">
+        <f t="shared" si="20"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>43922</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>44286</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>48751.00012734373</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>585012.00152812479</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>29.25060007640624</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -1255,27 +1746,46 @@
         <f>J25/$B$7</f>
         <v>14419104.615384612</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="21"/>
+        <v>43922</v>
+      </c>
+      <c r="Q25" s="33">
+        <f t="shared" si="19"/>
+        <v>44286</v>
+      </c>
+      <c r="R25" s="31">
+        <f t="shared" si="22"/>
+        <v>43000</v>
+      </c>
+      <c r="S25" s="30">
+        <f t="shared" si="20"/>
+        <v>516000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>44287</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>44651</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:D27" si="8">D25*1.025</f>
+        <f t="shared" ref="D26:D27" si="23">D25*1.025</f>
         <v>49969.77513052732</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>599637.30156632781</v>
       </c>
       <c r="F26" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>29.981865078316389</v>
       </c>
       <c r="H26" s="20"/>
@@ -1283,35 +1793,54 @@
         <v>1</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" ref="J26:J27" si="9">L13-J20</f>
+        <f t="shared" ref="J26:J27" si="24">L13-J20</f>
         <v>961397.84499999974</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="23">
-        <f t="shared" ref="L26:L29" si="10">J26/$B$7</f>
+        <f t="shared" ref="L26:L29" si="25">J26/$B$7</f>
         <v>14790736.076923072</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="21"/>
+        <v>44287</v>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="19"/>
+        <v>44651</v>
+      </c>
+      <c r="R26" s="31">
+        <f t="shared" si="22"/>
+        <v>44000</v>
+      </c>
+      <c r="S26" s="30">
+        <f t="shared" si="20"/>
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>44652</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>45016</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>51219.019508790501</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>614628.23410548596</v>
       </c>
       <c r="F27" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>30.731411705274297</v>
       </c>
       <c r="H27" s="20"/>
@@ -1319,16 +1848,35 @@
         <v>2</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>986172.29112499952</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>15171881.40192307</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="21"/>
+        <v>44652</v>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="19"/>
+        <v>45016</v>
+      </c>
+      <c r="R27" s="31">
+        <f t="shared" si="22"/>
+        <v>45000</v>
+      </c>
+      <c r="S27" s="30">
+        <f t="shared" si="20"/>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1345,11 +1893,30 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>15562782.898509605</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="21"/>
+        <v>45017</v>
+      </c>
+      <c r="Q28" s="33">
+        <f t="shared" si="19"/>
+        <v>45381</v>
+      </c>
+      <c r="R28" s="31">
+        <f t="shared" si="22"/>
+        <v>46000</v>
+      </c>
+      <c r="S28" s="30">
+        <f t="shared" si="20"/>
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1370,11 +1937,11 @@
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>15963689.021741573</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1386,8 +1953,23 @@
       <c r="J30" s="24"/>
       <c r="K30" s="7"/>
       <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1995,33 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="33">
+        <v>42979</v>
+      </c>
+      <c r="Q31" s="33">
+        <f>P31+364</f>
+        <v>43343</v>
+      </c>
+      <c r="R31" s="31">
+        <v>30000</v>
+      </c>
+      <c r="S31" s="30">
+        <f>R31*12</f>
+        <v>360000</v>
+      </c>
+      <c r="U31">
+        <f>Q4-P31</f>
+        <v>152</v>
+      </c>
+      <c r="V31">
+        <f>U31/30</f>
+        <v>5.0666666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -1441,8 +2048,27 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" s="33">
+        <f>Q31+1</f>
+        <v>43344</v>
+      </c>
+      <c r="Q32" s="33">
+        <f t="shared" ref="Q32:Q37" si="26">P32+364</f>
+        <v>43708</v>
+      </c>
+      <c r="R32" s="31">
+        <f>R31+600</f>
+        <v>30600</v>
+      </c>
+      <c r="S32" s="30">
+        <f t="shared" ref="S32:S37" si="27">R32*12</f>
+        <v>367200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6">
         <f>C32+1</f>
@@ -1457,11 +2083,11 @@
         <v>45099.999999999993</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" ref="E33:E38" si="11">D33*12</f>
+        <f t="shared" ref="E33:E38" si="28">D33*12</f>
         <v>541199.99999999988</v>
       </c>
       <c r="F33" s="23">
-        <f t="shared" ref="F33:F38" si="12">D33*12/B$29</f>
+        <f t="shared" ref="F33:F38" si="29">D33*12/B$29</f>
         <v>18.039999999999996</v>
       </c>
       <c r="H33" s="20"/>
@@ -1474,27 +2100,46 @@
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" s="33">
+        <f t="shared" ref="P33:P37" si="30">Q32+1</f>
+        <v>43709</v>
+      </c>
+      <c r="Q33" s="33">
+        <f>P33+365</f>
+        <v>44074</v>
+      </c>
+      <c r="R33" s="31">
+        <f t="shared" ref="R33:R37" si="31">R32+600</f>
+        <v>31200</v>
+      </c>
+      <c r="S33" s="30">
+        <f t="shared" si="27"/>
+        <v>374400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
-        <f t="shared" ref="B34:B38" si="13">C33+1</f>
+        <f t="shared" ref="B34:B38" si="32">C33+1</f>
         <v>43252</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:C38" si="14">B34+364</f>
+        <f t="shared" ref="C34:C38" si="33">B34+364</f>
         <v>43616</v>
       </c>
       <c r="D34" s="14">
-        <f t="shared" ref="D34:D38" si="15">D33*1.025</f>
+        <f t="shared" ref="D34:D38" si="34">D33*1.025</f>
         <v>46227.499999999985</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>554729.99999999977</v>
       </c>
       <c r="F34" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>18.490999999999993</v>
       </c>
       <c r="H34" s="20"/>
@@ -1507,11 +2152,30 @@
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" s="33">
+        <f t="shared" si="30"/>
+        <v>44075</v>
+      </c>
+      <c r="Q34" s="33">
+        <f t="shared" si="26"/>
+        <v>44439</v>
+      </c>
+      <c r="R34" s="31">
+        <f t="shared" si="31"/>
+        <v>31800</v>
+      </c>
+      <c r="S34" s="30">
+        <f t="shared" si="27"/>
+        <v>381600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>43617</v>
       </c>
       <c r="C35" s="6">
@@ -1519,15 +2183,15 @@
         <v>43982</v>
       </c>
       <c r="D35" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>47383.187499999978</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>568598.24999999977</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>18.953274999999991</v>
       </c>
       <c r="H35" s="20"/>
@@ -1540,27 +2204,46 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" s="33">
+        <f t="shared" si="30"/>
+        <v>44440</v>
+      </c>
+      <c r="Q35" s="33">
+        <f t="shared" si="26"/>
+        <v>44804</v>
+      </c>
+      <c r="R35" s="31">
+        <f t="shared" si="31"/>
+        <v>32400</v>
+      </c>
+      <c r="S35" s="30">
+        <f t="shared" si="27"/>
+        <v>388800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>43983</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>44347</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>48567.767187499972</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>582813.2062499997</v>
       </c>
       <c r="F36" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>19.427106874999989</v>
       </c>
       <c r="H36" s="20"/>
@@ -1568,27 +2251,46 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36" s="33">
+        <f t="shared" si="30"/>
+        <v>44805</v>
+      </c>
+      <c r="Q36" s="33">
+        <f t="shared" si="26"/>
+        <v>45169</v>
+      </c>
+      <c r="R36" s="31">
+        <f t="shared" si="31"/>
+        <v>33000</v>
+      </c>
+      <c r="S36" s="30">
+        <f t="shared" si="27"/>
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>44348</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>44712</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>49781.961367187469</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>597383.53640624962</v>
       </c>
       <c r="F37" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>19.912784546874988</v>
       </c>
       <c r="H37" s="20"/>
@@ -1598,27 +2300,46 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37" s="33">
+        <f t="shared" si="30"/>
+        <v>45170</v>
+      </c>
+      <c r="Q37" s="33">
+        <f t="shared" si="26"/>
+        <v>45534</v>
+      </c>
+      <c r="R37" s="31">
+        <f t="shared" si="31"/>
+        <v>33600</v>
+      </c>
+      <c r="S37" s="30">
+        <f t="shared" si="27"/>
+        <v>403200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>44713</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>45077</v>
       </c>
       <c r="D38" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>51026.510401367152</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>612318.12481640582</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>20.41060416054686</v>
       </c>
       <c r="H38" s="20"/>
@@ -1632,7 +2353,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1650,7 +2371,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -1673,8 +2394,12 @@
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="7" t="s">
         <v>18</v>
@@ -1695,8 +2420,12 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="7" t="s">
         <v>19</v>
@@ -1717,8 +2446,12 @@
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="7" t="s">
         <v>20</v>
@@ -1734,8 +2467,12 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="7" t="s">
         <v>21</v>
@@ -1751,8 +2488,12 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+    </row>
+    <row r="45" spans="1:19" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="7" t="s">
         <v>22</v>
@@ -1768,8 +2509,12 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="7" t="s">
         <v>23</v>
@@ -1784,7 +2529,7 @@
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1792,7 +2537,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
